--- a/xlsx/殖民帝国_intext.xlsx
+++ b/xlsx/殖民帝国_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="720">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="716">
   <si>
     <t>殖民帝国</t>
   </si>
@@ -26,10 +26,10 @@
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%84%B6%E8%B3%87%E6%BA%90</t>
   </si>
   <si>
-    <t>自然資源</t>
-  </si>
-  <si>
-    <t>政策_政策_美國_殖民帝国</t>
+    <t>自然资源</t>
+  </si>
+  <si>
+    <t>政策_政策_美国_殖民帝国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E5%8A%9B</t>
@@ -41,7 +41,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AA%9E%E8%A8%80</t>
   </si>
   <si>
-    <t>語言</t>
+    <t>语言</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%97%E6%95%99</t>
@@ -65,25 +65,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%9D%E5%9C%8B%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>帝國主義</t>
+    <t>帝国主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A8%AE%E6%97%8F%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>種族主義</t>
+    <t>种族主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%81%BD%E7%A7%91%E5%AD%B8</t>
   </si>
   <si>
-    <t>偽科學</t>
+    <t>伪科学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E9%81%94%E7%88%BE%E6%96%87%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>社會達爾文主義</t>
+    <t>社会达尔文主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%91%A8%E6%9C%9D</t>
@@ -95,25 +95,25 @@
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E5%8F%A4%E5%B8%9D%E5%9C%8B</t>
   </si>
   <si>
-    <t>蒙古帝國</t>
+    <t>蒙古帝国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E6%AD%B7%E5%B1%B1%E5%A4%A7%E5%B8%9D%E5%9C%8B</t>
   </si>
   <si>
-    <t>亞歷山大帝國</t>
+    <t>亚历山大帝国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E5%B8%9D%E5%9C%8B</t>
   </si>
   <si>
-    <t>羅馬帝國</t>
+    <t>罗马帝国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%84%82%E5%9C%96%E6%9B%BC%E5%9C%9F%E8%80%B3%E5%85%B6</t>
   </si>
   <si>
-    <t>鄂圖曼土耳其</t>
+    <t>鄂图曼土耳其</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E6%AE%96%E6%B0%91%E5%9C%B0%E5%8C%96</t>
@@ -131,7 +131,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8D%A8%E7%AB%8B</t>
   </si>
   <si>
-    <t>獨立</t>
+    <t>独立</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E9%9D%9E</t>
@@ -149,31 +149,31 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E5%8D%97%E4%BA%9E</t>
   </si>
   <si>
-    <t>東南亞</t>
+    <t>东南亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%B1%AC%E6%9D%B1%E9%9D%9E</t>
   </si>
   <si>
-    <t>德屬東非</t>
+    <t>德属东非</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8E%84%E5%88%A9%E5%9E%82%E4%BA%9E</t>
   </si>
   <si>
-    <t>厄利垂亞</t>
+    <t>厄利垂亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%A2%E9%A6%AC%E5%88%A9%E4%BA%9E</t>
   </si>
   <si>
-    <t>索馬利亞</t>
+    <t>索马利亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E6%AF%94%E4%BA%9E</t>
   </si>
   <si>
-    <t>利比亞</t>
+    <t>利比亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%80%E6%AC%A1%E6%84%8F%E5%A4%A7%E5%88%A9%E5%9F%83%E5%A1%9E%E4%BF%84%E6%AF%94%E4%BA%9A%E6%88%98%E4%BA%89</t>
@@ -185,7 +185,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%BA%8C%E6%AC%A1%E7%BE%A9%E5%A4%A7%E5%88%A9%E8%A1%A3%E7%B4%A2%E6%AF%94%E4%BA%9E%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>第二次義大利衣索比亞戰爭</t>
+    <t>第二次义大利衣索比亚战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%AF%94%E8%A5%BF%E5%B0%BC%E4%BA%9A</t>
@@ -197,7 +197,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E5%A1%9E%E4%BF%84%E6%AF%94%E4%BA%9E</t>
   </si>
   <si>
-    <t>埃塞俄比亞</t>
+    <t>埃塞俄比亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%84%8F%E5%A4%A7%E5%88%A9%E6%AE%96%E6%B0%91%E5%B8%9D%E5%9B%BD</t>
@@ -209,49 +209,49 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E6%A5%AD%E5%8C%96</t>
   </si>
   <si>
-    <t>工業化</t>
+    <t>工业化</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%B8%9D%E5%9C%8B%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>新帝國主義</t>
+    <t>新帝国主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%80%E6%AC%A1%E4%B8%96%E7%95%8C%E5%A4%A7%E6%88%B0</t>
   </si>
   <si>
-    <t>第一次世界大戰</t>
+    <t>第一次世界大战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%8C%E7%9B%9F%E5%9C%8B_(%E7%AC%AC%E4%B8%80%E6%AC%A1%E4%B8%96%E7%95%8C%E5%A4%A7%E6%88%B0)</t>
   </si>
   <si>
-    <t>同盟國 (第一次世界大戰)</t>
+    <t>同盟国 (第一次世界大战)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E5%A4%96%E9%A0%98%E5%9C%B0</t>
   </si>
   <si>
-    <t>海外領地</t>
+    <t>海外领地</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%94%E7%B4%84%E5%9C%8B</t>
   </si>
   <si>
-    <t>協約國</t>
+    <t>协约国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E8%81%AF%E7%9B%9F%E8%A8%97%E7%AE%A1%E5%9C%B0</t>
   </si>
   <si>
-    <t>國際聯盟託管地</t>
+    <t>国际联盟讬管地</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%BA%8C%E6%AC%A1%E4%B8%96%E7%95%8C%E5%A4%A7%E6%88%B0</t>
   </si>
   <si>
-    <t>第二次世界大戰</t>
+    <t>第二次世界大战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E4%B8%81%E6%AE%96%E6%B0%91%E5%9C%B0</t>
@@ -263,13 +263,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9F%83%E8%98%87%E4%B8%B9</t>
   </si>
   <si>
-    <t>英埃蘇丹</t>
+    <t>英埃苏丹</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%A3%AE%E6%9D%BE%E5%B3%B6</t>
   </si>
   <si>
-    <t>阿森松島</t>
+    <t>阿森松岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E5%A4%A7%E5%88%A9%E4%BA%9A</t>
@@ -281,25 +281,25 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E6%B4%B2%E5%8D%97%E6%A5%B5%E6%B4%B2%E9%A0%98%E5%9C%B0</t>
   </si>
   <si>
-    <t>澳洲南極洲領地</t>
+    <t>澳洲南极洲领地</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E8%AA%95%E5%B3%B6</t>
   </si>
   <si>
-    <t>聖誕島</t>
+    <t>圣诞岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%A7%91%E6%96%AF%EF%BC%88%E5%9F%BA%E6%9E%97%EF%BC%89%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>科科斯（基林）群島</t>
+    <t>科科斯（基林）群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AB%BE%E7%A6%8F%E5%85%8B%E5%B3%B6</t>
   </si>
   <si>
-    <t>諾福克島</t>
+    <t>诺福克岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%93%88%E9%A9%AC</t>
@@ -353,19 +353,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%B1%AC%E9%A6%99%E6%B8%AF</t>
   </si>
   <si>
-    <t>英屬香港</t>
+    <t>英属香港</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%B1%AC%E9%A6%AC%E4%BE%86%E4%BA%9E</t>
   </si>
   <si>
-    <t>英屬馬來亞</t>
+    <t>英属马来亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%B1%AC%E7%B4%A2%E9%A6%AC%E5%88%A9%E8%98%AD</t>
   </si>
   <si>
-    <t>英屬索馬利蘭</t>
+    <t>英属索马利兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%87%E8%8E%B1</t>
@@ -389,19 +389,19 @@
     <t>https://zh.wikipedia.org/wiki/%E9%8C%AB%E8%98%AD</t>
   </si>
   <si>
-    <t>錫蘭</t>
+    <t>锡兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B3%BD%E6%99%AE%E5%8B%92%E6%96%AF</t>
   </si>
   <si>
-    <t>賽普勒斯</t>
+    <t>赛普勒斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E5%85%8B%E7%BE%85%E6%8F%90%E5%88%A9%E8%88%87%E5%BE%B7%E5%87%B1%E5%88%A9%E4%BA%9E</t>
   </si>
   <si>
-    <t>亞克羅提利與德凱利亞</t>
+    <t>亚克罗提利与德凯利亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E5%8F%8A</t>
@@ -419,13 +419,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%90%E6%BF%9F</t>
   </si>
   <si>
-    <t>斐濟</t>
+    <t>斐济</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%98%E6%AF%94%E4%BA%9E</t>
   </si>
   <si>
-    <t>甘比亞</t>
+    <t>甘比亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E9%87%8C%E5%B7%B4%E6%96%AF</t>
@@ -443,13 +443,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%B1%AC%E9%BB%83%E9%87%91%E6%B5%B7%E5%B2%B8</t>
   </si>
   <si>
-    <t>英屬黃金海岸</t>
+    <t>英属黄金海岸</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%B1%AC%E5%8D%B0%E5%BA%A6%E8%AB%B8%E7%9C%81</t>
   </si>
   <si>
-    <t>英屬印度諸省</t>
+    <t>英属印度诸省</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%9F%BA%E6%96%AF%E5%9D%A6</t>
@@ -467,19 +467,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E7%88%BE%E8%98%AD</t>
   </si>
   <si>
-    <t>愛爾蘭</t>
+    <t>爱尔兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%99%E8%B2%B7%E5%8A%A0</t>
   </si>
   <si>
-    <t>牙買加</t>
+    <t>牙买加</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%82%AF%E4%BA%9E</t>
   </si>
   <si>
-    <t>肯亞</t>
+    <t>肯亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E8%80%B3%E4%BB%96</t>
@@ -491,13 +491,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E8%8A%AC%E8%98%AD%E8%87%AA%E6%B2%BB%E9%A0%98</t>
   </si>
   <si>
-    <t>紐芬蘭自治領</t>
+    <t>纽芬兰自治领</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E8%A5%BF%E8%98%AD</t>
   </si>
   <si>
-    <t>紐西蘭</t>
+    <t>纽西兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BA%93%E5%85%8B%E7%BE%A4%E5%B2%9B</t>
@@ -509,7 +509,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E5%9F%83</t>
   </si>
   <si>
-    <t>紐埃</t>
+    <t>纽埃</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E6%96%AF%E5%B1%9E%E5%9C%B0</t>
@@ -521,31 +521,31 @@
     <t>https://zh.wikipedia.org/wiki/%E6%89%98%E5%85%8B%E5%8B%9E</t>
   </si>
   <si>
-    <t>托克勞</t>
+    <t>托克劳</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%88%E5%8F%8A%E5%88%A9%E4%BA%9E</t>
   </si>
   <si>
-    <t>奈及利亞</t>
+    <t>奈及利亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E5%A9%86%E7%BE%85%E6%B4%B2</t>
   </si>
   <si>
-    <t>北婆羅洲</t>
+    <t>北婆罗洲</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%BE%85%E5%BE%B7%E8%A5%BF%E4%BA%9E</t>
   </si>
   <si>
-    <t>北羅德西亞</t>
+    <t>北罗德西亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E9%98%BF%E6%8B%89%E4%BC%AF%E8%81%AF%E9%82%A6</t>
   </si>
   <si>
-    <t>南阿拉伯聯邦</t>
+    <t>南阿拉伯联邦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%B8%83%E4%BA%9A</t>
@@ -563,13 +563,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8D%85%E5%AD%90%E5%B1%B1%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>獅子山共和國</t>
+    <t>狮子山共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E7%BE%85%E5%BE%B7%E8%A5%BF%E4%BA%9E</t>
   </si>
   <si>
-    <t>南羅德西亞</t>
+    <t>南罗德西亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E8%B5%AB%E5%8B%92%E6%8B%BF%E5%B2%9B</t>
@@ -581,7 +581,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%83%E9%87%8C%E9%81%94%E5%8F%8A%E6%89%98%E5%B7%B4%E5%93%A5</t>
   </si>
   <si>
-    <t>千里達及托巴哥</t>
+    <t>千里达及托巴哥</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B9%8C%E5%B9%B2%E8%BE%BE</t>
@@ -593,7 +593,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E9%9D%9E%E8%81%AF%E9%82%A6</t>
   </si>
   <si>
-    <t>南非聯邦</t>
+    <t>南非联邦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF</t>
@@ -605,9 +605,6 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%B1%9E%E9%A6%99%E6%B8%AF</t>
   </si>
   <si>
-    <t>英属香港</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B0%94%E5%8F%8A%E5%88%A9%E4%BA%9A</t>
   </si>
   <si>
@@ -629,13 +626,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%B1%AC%E5%9C%AD%E4%BA%9E%E9%82%A3</t>
   </si>
   <si>
-    <t>法屬圭亞那</t>
+    <t>法属圭亚那</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%B1%AC%E8%B5%A4%E9%81%93%E9%9D%9E%E6%B4%B2</t>
   </si>
   <si>
-    <t>法屬赤道非洲</t>
+    <t>法属赤道非洲</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B9%8D%E5%BE%97</t>
@@ -653,7 +650,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%B1%AC%E5%89%9B%E6%9E%9C</t>
   </si>
   <si>
-    <t>法屬剛果</t>
+    <t>法属刚果</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E8%93%AC</t>
@@ -665,7 +662,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%B1%AC%E5%8D%B0%E5%BA%A6</t>
   </si>
   <si>
-    <t>法屬印度</t>
+    <t>法属印度</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%AC%E5%9C%B0%E6%B2%BB%E9%87%8C</t>
@@ -677,7 +674,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E5%BE%B7%E8%A8%A5%E6%A0%BC%E7%88%BE</t>
   </si>
   <si>
-    <t>金德訥格爾</t>
+    <t>金德讷格尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BC%80%E5%88%A9%E5%BC%80%E5%B0%94</t>
@@ -701,13 +698,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%B1%AC%E5%8D%B0%E5%BA%A6%E6%94%AF%E9%82%A3</t>
   </si>
   <si>
-    <t>法屬印度支那</t>
+    <t>法属印度支那</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%8D%97%E4%BF%9D%E8%AD%B7%E5%9C%8B</t>
   </si>
   <si>
-    <t>安南保護國</t>
+    <t>安南保护国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9F%AC%E5%9F%94%E5%AF%A8</t>
@@ -731,19 +728,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E4%BA%AC_(%E8%B6%8A%E5%8D%97)</t>
   </si>
   <si>
-    <t>東京 (越南)</t>
+    <t>东京 (越南)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%B1%AC%E7%8E%BB%E9%87%8C%E5%B0%BC%E8%A5%BF%E4%BA%9E</t>
   </si>
   <si>
-    <t>法屬玻里尼西亞</t>
+    <t>法属玻里尼西亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%B1%AC%E7%B4%A2%E9%A6%AC%E5%88%A9%E8%98%AD</t>
   </si>
   <si>
-    <t>法屬索馬利蘭</t>
+    <t>法属索马利兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%B1%9E%E5%8D%97%E9%83%A8%E5%92%8C%E5%8D%97%E6%9E%81%E9%A2%86%E5%9C%B0</t>
@@ -755,7 +752,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%B1%AC%E8%A5%BF%E9%9D%9E</t>
   </si>
   <si>
-    <t>法屬西非</t>
+    <t>法属西非</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B4%9D%E5%AE%81</t>
@@ -785,13 +782,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%B1%AC%E8%98%87%E4%B8%B9</t>
   </si>
   <si>
-    <t>法屬蘇丹</t>
+    <t>法属苏丹</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8C%85%E5%88%A9%E5%A1%94%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
-    <t>茅利塔尼亞</t>
+    <t>茅利塔尼亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E6%97%A5%E5%B0%94</t>
@@ -803,7 +800,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E5%85%A7%E5%8A%A0%E7%88%BE</t>
   </si>
   <si>
-    <t>塞內加爾</t>
+    <t>塞内加尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8A%E4%BC%8F%E5%A1%94</t>
@@ -821,13 +818,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%B7%B4%E6%B3%B0%E5%8B%92%E7%B1%B3</t>
   </si>
   <si>
-    <t>聖巴泰勒米</t>
+    <t>圣巴泰勒米</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%B1%AC%E8%81%96%E9%A6%AC%E4%B8%81</t>
   </si>
   <si>
-    <t>法屬聖馬丁</t>
+    <t>法属圣马丁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%95%99%E5%B0%BC%E6%97%BA</t>
@@ -845,25 +842,25 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E6%8F%90%E5%B0%BC%E5%85%8B</t>
   </si>
   <si>
-    <t>馬提尼克</t>
+    <t>马提尼克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%B1%AC%E6%91%A9%E6%B4%9B%E5%93%A5</t>
   </si>
   <si>
-    <t>法屬摩洛哥</t>
+    <t>法属摩洛哥</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%96%80%E9%87%8C%E5%A4%9A%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
-    <t>新喀里多尼亞</t>
+    <t>新喀里多尼亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E7%9A%AE%E8%80%B6%E8%88%87%E5%AF%86%E5%85%8B%E9%9A%86%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>聖皮耶與密克隆群島</t>
+    <t>圣皮耶与密克隆群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8A%E6%B5%B7%E6%B3%95%E7%A7%9F%E7%95%8C</t>
@@ -881,7 +878,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BC%A2%E5%8F%A3</t>
   </si>
   <si>
-    <t>漢口</t>
+    <t>汉口</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E6%B4%A5</t>
@@ -899,13 +896,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%90%AC%E9%82%A3%E6%9D%9C</t>
   </si>
   <si>
-    <t>萬那杜</t>
+    <t>万那杜</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%93%A6%E5%88%A9%E6%96%AF%E5%92%8C%E5%AF%8C%E5%9C%96%E7%B4%8D</t>
   </si>
   <si>
-    <t>瓦利斯和富圖納</t>
+    <t>瓦利斯和富图纳</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%96%80%E9%BA%A6%E9%9A%86</t>
@@ -923,7 +920,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%B1%AC%E6%96%B0%E5%B9%BE%E5%85%A7%E4%BA%9E</t>
   </si>
   <si>
-    <t>德屬新幾內亞</t>
+    <t>德属新几内亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%B1%9E%E8%A5%BF%E5%8D%97%E9%9D%9E%E6%B4%B2</t>
@@ -941,13 +938,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E9%87%8C%E4%BA%9E%E7%B4%8D%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>馬里亞納群島</t>
+    <t>马里亚纳群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E7%B4%B9%E7%88%BE%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>馬紹爾群島</t>
+    <t>马绍尔群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E6%B4%A5%E5%BE%B7%E7%A7%9F%E7%95%8C</t>
@@ -959,7 +956,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9D%92%E5%B3%B6</t>
   </si>
   <si>
-    <t>青島</t>
+    <t>青岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8E%84%E7%AB%8B%E7%89%B9%E9%87%8C%E4%BA%9A</t>
@@ -971,7 +968,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%A9%E5%B1%AC%E7%B4%A2%E9%A6%AC%E5%88%A9%E8%98%AD</t>
   </si>
   <si>
-    <t>義屬索馬利蘭</t>
+    <t>义属索马利兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E6%B4%A5%E6%84%8F%E7%A7%9F%E7%95%8C</t>
@@ -995,7 +992,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E9%AD%AF%E5%B7%B4</t>
   </si>
   <si>
-    <t>阿魯巴</t>
+    <t>阿鲁巴</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%A5%88</t>
@@ -1013,7 +1010,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E5%B1%AC%E6%B2%99%E5%B7%B4</t>
   </si>
   <si>
-    <t>荷屬沙巴</t>
+    <t>荷属沙巴</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E5%B0%A4%E6%96%AF%E7%89%B9%E6%AD%87%E6%96%AF</t>
@@ -1025,7 +1022,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E5%B1%AC%E8%81%96%E9%A6%AC%E4%B8%81</t>
   </si>
   <si>
-    <t>荷屬聖馬丁</t>
+    <t>荷属圣马丁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E5%B1%9E%E5%9C%AD%E4%BA%9A%E9%82%A3</t>
@@ -1037,43 +1034,43 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E5%B1%AC%E6%9D%B1%E5%8D%B0%E5%BA%A6</t>
   </si>
   <si>
-    <t>荷屬東印度</t>
+    <t>荷属东印度</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E5%B1%AC%E6%96%B0%E5%B9%BE%E5%85%A7%E4%BA%9E</t>
   </si>
   <si>
-    <t>荷屬新幾內亞</t>
+    <t>荷属新几内亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E5%B1%AC%E8%87%BA%E7%81%A3</t>
   </si>
   <si>
-    <t>荷屬臺灣</t>
+    <t>荷属台湾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E9%80%9F%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>亞速群島</t>
+    <t>亚速群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E8%B3%93%E9%81%94%E7%9C%81</t>
   </si>
   <si>
-    <t>卡賓達省</t>
+    <t>卡宾达省</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%BE%B7%E6%8B%89</t>
   </si>
   <si>
-    <t>馬德拉</t>
+    <t>马德拉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%91%A1%E5%B1%AC%E8%A5%BF%E9%9D%9E</t>
   </si>
   <si>
-    <t>葡屬西非</t>
+    <t>葡属西非</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BD%9B%E5%BE%97%E8%A7%92</t>
@@ -1085,19 +1082,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%91%A1%E5%B1%AC%E5%B9%BE%E5%85%A7%E4%BA%9E</t>
   </si>
   <si>
-    <t>葡屬幾內亞</t>
+    <t>葡属几内亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%91%A1%E5%B1%AC%E6%9D%B1%E9%9D%9E</t>
   </si>
   <si>
-    <t>葡屬東非</t>
+    <t>葡属东非</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%91%A1%E5%B1%AC%E5%8D%B0%E5%BA%A6</t>
   </si>
   <si>
-    <t>葡屬印度</t>
+    <t>葡属印度</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9E%9C%E9%98%BF%E9%82%A6</t>
@@ -1121,13 +1118,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%91%A1%E5%B1%AC%E6%BE%B3%E9%96%80</t>
   </si>
   <si>
-    <t>葡屬澳門</t>
+    <t>葡属澳门</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%91%A1%E5%B1%AC%E5%B8%9D%E6%B1%B6</t>
   </si>
   <si>
-    <t>葡屬帝汶</t>
+    <t>葡属帝汶</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E8%AF%BA%E6%9C%AC%E5%B2%9B</t>
@@ -1157,7 +1154,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%B1%AC%E6%91%A9%E6%B4%9B%E5%93%A5</t>
   </si>
   <si>
-    <t>西屬摩洛哥</t>
+    <t>西属摩洛哥</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E6%96%AF%E5%B0%BC%E4%BA%9A%E5%92%8C%E9%BB%91%E5%A1%9E%E5%93%A5%E7%BB%B4%E9%82%A3</t>
@@ -1175,31 +1172,31 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%B9%E9%BA%A5%E5%B1%AC%E8%A5%BF%E5%8D%B0%E5%BA%A6%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>丹麥屬西印度群島</t>
+    <t>丹麦属西印度群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E7%BE%85%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>法羅群島</t>
+    <t>法罗群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E9%99%B5%E8%98%AD</t>
   </si>
   <si>
-    <t>格陵蘭</t>
+    <t>格陵兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%B0%E5%B3%B6</t>
   </si>
   <si>
-    <t>冰島</t>
+    <t>冰岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E5%B1%AC%E5%89%9B%E6%9E%9C</t>
   </si>
   <si>
-    <t>比屬剛果</t>
+    <t>比属刚果</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E6%B4%A5%E6%AF%94%E7%A7%9F%E7%95%8C</t>
@@ -1217,7 +1214,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%B1%AC%E8%96%A9%E6%91%A9%E4%BA%9E</t>
   </si>
   <si>
-    <t>美屬薩摩亞</t>
+    <t>美属萨摩亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B7%B4</t>
@@ -1235,7 +1232,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%97%9C%E5%B3%B6</t>
   </si>
   <si>
-    <t>關島</t>
+    <t>关岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%8F%E5%A8%81%E5%A4%B7%E5%B7%9E</t>
@@ -1253,7 +1250,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E9%80%94%E5%B3%B6</t>
   </si>
   <si>
-    <t>中途島</t>
+    <t>中途岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E5%8A%A0%E6%8B%89%E7%93%9C</t>
@@ -1265,7 +1262,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E7%88%BE%E7%B1%B3%E6%8B%89%E7%92%B0%E7%A4%81</t>
   </si>
   <si>
-    <t>巴爾米拉環礁</t>
+    <t>巴尔米拉环礁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%8B%BF%E9%A9%AC</t>
@@ -1295,19 +1292,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%98%87%E7%A5%BF%E8%98%87%E4%B8%B9%E5%9C%8B</t>
   </si>
   <si>
-    <t>蘇祿蘇丹國</t>
+    <t>苏禄苏丹国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%85%8B%E5%B3%B6</t>
   </si>
   <si>
-    <t>威克島</t>
+    <t>威克岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%A0%BC%E9%81%94%E7%9C%81</t>
   </si>
   <si>
-    <t>巴格達省</t>
+    <t>巴格达省</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%A3%AB%E6%8B%89%E7%9C%81</t>
@@ -1331,13 +1328,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BC%A2%E5%BF%97</t>
   </si>
   <si>
-    <t>漢志</t>
+    <t>汉志</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BA%AB%E5%BE%B7%E6%96%AF%E5%9D%A6</t>
   </si>
   <si>
-    <t>庫德斯坦</t>
+    <t>库德斯坦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BB%8E%E5%B7%B4%E5%AB%A9</t>
@@ -1367,13 +1364,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%91%89%E9%96%80%E7%8E%8B%E5%9C%8B</t>
   </si>
   <si>
-    <t>葉門王國</t>
+    <t>叶门王国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E8%98%AD_(%E8%8A%AC%E8%98%AD)</t>
   </si>
   <si>
-    <t>奧蘭 (芬蘭)</t>
+    <t>奥兰 (芬兰)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E7%BD%97%E7%9A%84%E6%B5%B7%E8%81%94%E5%90%88%E5%85%AC%E5%9B%BD</t>
@@ -1385,13 +1382,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8A%AC%E8%98%AD%E5%A4%A7%E5%85%AC%E5%9C%8B</t>
   </si>
   <si>
-    <t>芬蘭大公國</t>
+    <t>芬兰大公国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E8%98%AD%E6%9C%83%E8%AD%B0%E7%8E%8B%E5%9C%8B</t>
   </si>
   <si>
-    <t>波蘭會議王國</t>
+    <t>波兰会议王国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9E%91%E9%9D%BC%E6%96%AF%E5%9D%A6%E5%85%B1%E5%92%8C%E5%9B%BD</t>
@@ -1421,7 +1418,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%81%94%E5%90%89%E6%96%AF%E5%9D%A6%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>達吉斯坦共和國</t>
+    <t>达吉斯坦共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A1%BF%E5%B7%B4%E6%96%AF</t>
@@ -1439,19 +1436,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%8F%A4%E4%BB%80%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>印古什共和國</t>
+    <t>印古什共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E5%B7%B4%E7%88%BE%E9%81%94-%E5%B7%B4%E7%88%BE%E5%8D%A1%E7%88%BE%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>卡巴爾達-巴爾卡爾共和國</t>
+    <t>卡巴尔达-巴尔卡尔共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E7%88%BE%E6%A2%85%E5%85%8B%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>卡爾梅克共和國</t>
+    <t>卡尔梅克共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E6%8B%89%E6%81%B0%E4%BC%8A-%E5%88%87%E5%B0%94%E5%85%8B%E6%96%AF%E5%85%B1%E5%92%8C%E5%9B%BD</t>
@@ -1469,7 +1466,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E9%87%8C%E5%9F%83%E7%88%BE%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>馬里埃爾共和國</t>
+    <t>马里埃尔共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8E%AB%E5%B0%94%E5%A4%9A%E7%93%A6%E5%85%B1%E5%92%8C%E5%9B%BD</t>
@@ -1481,7 +1478,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E8%96%A9%E6%8B%89%E6%AF%94%E4%BA%9E</t>
   </si>
   <si>
-    <t>比薩拉比亞</t>
+    <t>比萨拉比亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E8%BF%AA%E6%A0%BC%E5%85%B1%E5%92%8C%E5%9B%BD</t>
@@ -1493,13 +1490,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E7%88%BE%E6%B3%B0%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>阿爾泰共和國</t>
+    <t>阿尔泰共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E7%BE%8E%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
-    <t>亞美尼亞</t>
+    <t>亚美尼亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%A1%9E%E6%8B%9C%E7%96%86</t>
@@ -1517,7 +1514,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E9%87%8C%E4%BA%9E%E7%89%B9%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>布里亞特共和國</t>
+    <t>布里亚特共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A5%9A%E7%A7%91%E5%A5%87%E8%87%AA%E6%B2%BB%E5%8C%BA</t>
@@ -1529,7 +1526,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E5%93%88%E6%8B%89%E5%9F%83%E7%B1%B3%E7%88%BE%E5%9C%8B</t>
   </si>
   <si>
-    <t>布哈拉埃米爾國</t>
+    <t>布哈拉埃米尔国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E9%B2%81%E5%90%89%E4%BA%9A</t>
@@ -1547,13 +1544,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E7%93%A6%E6%B1%97%E5%9C%8B</t>
   </si>
   <si>
-    <t>希瓦汗國</t>
+    <t>希瓦汗国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E5%A1%9E%E6%8F%90%E4%BA%9E</t>
   </si>
   <si>
-    <t>奧塞提亞</t>
+    <t>奥塞提亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E6%B4%A5%E4%BF%84%E7%A7%9F%E7%95%8C</t>
@@ -1565,7 +1562,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%96%E6%9D%B1%E5%8C%97</t>
   </si>
   <si>
-    <t>外東北</t>
+    <t>外东北</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%96%E8%A5%BF%E5%8C%97</t>
@@ -1583,7 +1580,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%9F%E8%80%B3%E5%85%B6%E6%96%AF%E5%9D%A6%E7%B8%BD%E7%9D%A3%E5%8D%80</t>
   </si>
   <si>
-    <t>土耳其斯坦總督區</t>
+    <t>土耳其斯坦总督区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%94%90%E5%8A%AA%E4%B9%8C%E6%A2%81%E6%B5%B7</t>
@@ -1607,13 +1604,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A8%BA%E5%A4%AA%E5%BB%B3</t>
   </si>
   <si>
-    <t>樺太廳</t>
+    <t>桦太厅</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%9D%E9%AE%AE%E6%97%A5%E6%B2%BB%E6%99%82%E6%9C%9F</t>
   </si>
   <si>
-    <t>朝鮮日治時期</t>
+    <t>朝鲜日治时期</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%B3%E4%B8%9C%E5%B7%9E</t>
@@ -1631,13 +1628,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%81%A3%E6%97%A5%E6%B2%BB%E6%99%82%E6%9C%9F</t>
   </si>
   <si>
-    <t>台灣日治時期</t>
+    <t>台湾日治时期</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E6%B4%8B%E5%BB%B3</t>
   </si>
   <si>
-    <t>南洋廳</t>
+    <t>南洋厅</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%90%89%E7%90%83</t>
@@ -1649,19 +1646,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%89%B9%E5%88%A5%E7%B5%B1%E6%B2%BB%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>特別統治主義</t>
+    <t>特别统治主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%8B%B1%E5%B8%9D%E5%9C%8B</t>
   </si>
   <si>
-    <t>大英帝國</t>
+    <t>大英帝国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E5%9C%B0%E5%BB%B6%E9%95%B7%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>內地延長主義</t>
+    <t>内地延长主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E5%B0%94%E4%BA%BA</t>
@@ -1673,7 +1670,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E6%9D%B1%E4%BA%9E%E5%85%B1%E6%A6%AE%E5%9C%88</t>
   </si>
   <si>
-    <t>大東亞共榮圈</t>
+    <t>大东亚共荣圈</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%B3%E7%B2%B9%E5%BE%B7%E5%9B%BD</t>
@@ -1685,13 +1682,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC%E8%BB%8D%E5%9C%8B%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>日本軍國主義</t>
+    <t>日本军国主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E6%97%A5%E6%9C%AC%E5%B8%9D%E5%9C%8B</t>
   </si>
   <si>
-    <t>大日本帝國</t>
+    <t>大日本帝国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BB%A1%E6%B4%B2%E5%9B%BD</t>
@@ -1721,43 +1718,43 @@
     <t>https://zh.wikipedia.org/wiki/%E8%98%87%E8%81%AF</t>
   </si>
   <si>
-    <t>蘇聯</t>
+    <t>苏联</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>中華人民共和國</t>
+    <t>中华人民共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BE%85%E6%96%AF%E8%98%87%E7%B6%AD%E5%9F%83%E8%81%AF%E9%82%A6%E7%A4%BE%E6%9C%83%E4%B8%BB%E7%BE%A9%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>俄羅斯蘇維埃聯邦社會主義共和國</t>
+    <t>俄罗斯苏维埃联邦社会主义共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%83%8F%E5%85%8B%E8%98%AD</t>
   </si>
   <si>
-    <t>烏克蘭</t>
+    <t>乌克兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E8%96%A9%E5%85%8B%E6%96%AF%E5%9D%A6</t>
   </si>
   <si>
-    <t>哈薩克斯坦</t>
+    <t>哈萨克斯坦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%83%8F%E8%8C%B2%E5%88%A5%E5%85%8B%E6%96%AF%E5%9D%A6</t>
   </si>
   <si>
-    <t>烏茲別克斯坦</t>
+    <t>乌兹别克斯坦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%9F%E5%BA%AB%E6%9B%BC%E6%96%AF%E5%9D%A6</t>
   </si>
   <si>
-    <t>土庫曼斯坦</t>
+    <t>土库曼斯坦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%94%E5%90%89%E5%85%8B%E6%96%AF%E5%9D%A6</t>
@@ -1769,7 +1766,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%89%E7%88%BE%E5%90%89%E6%96%AF%E6%96%AF%E5%9D%A6</t>
   </si>
   <si>
-    <t>吉爾吉斯斯坦</t>
+    <t>吉尔吉斯斯坦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E7%BD%97%E7%9A%84%E6%B5%B7%E4%B8%89%E5%9B%BD</t>
@@ -1781,73 +1778,70 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8A%AC%E8%98%AD</t>
   </si>
   <si>
-    <t>芬蘭</t>
+    <t>芬兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%AC%E5%AD%A3%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>冬季戰爭</t>
+    <t>冬季战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%8D%E7%B2%B9%E5%BE%B7%E5%9C%8B</t>
   </si>
   <si>
-    <t>納粹德國</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E8%98%AD</t>
   </si>
   <si>
-    <t>波蘭</t>
+    <t>波兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%98%87%E5%BE%B7%E4%BA%92%E4%B8%8D%E4%BE%B5%E7%8A%AF%E6%A2%9D%E7%B4%84</t>
   </si>
   <si>
-    <t>蘇德互不侵犯條約</t>
+    <t>苏德互不侵犯条约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E8%98%AD%E7%AC%AC%E4%BA%8C%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>波蘭第二共和國</t>
+    <t>波兰第二共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E7%88%BE%E5%A4%9A%E7%93%A6</t>
   </si>
   <si>
-    <t>摩爾多瓦</t>
+    <t>摩尔多瓦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%B7%E6%88%B0</t>
   </si>
   <si>
-    <t>冷戰</t>
+    <t>冷战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E6%96%B9%E9%9B%86%E5%9C%98</t>
   </si>
   <si>
-    <t>東方集團</t>
+    <t>东方集团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E5%8A%A0%E5%88%A9%E4%BA%9E</t>
   </si>
   <si>
-    <t>保加利亞</t>
+    <t>保加利亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
-    <t>羅馬尼亞</t>
+    <t>罗马尼亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E5%BE%B7</t>
   </si>
   <si>
-    <t>東德</t>
+    <t>东德</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8D%B7%E5%85%8B%E6%96%AF%E6%B4%9B%E4%BC%90%E5%85%8B</t>
@@ -1865,7 +1859,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8B%A2%E5%8A%9B%E7%AF%84%E5%9C%8D</t>
   </si>
   <si>
-    <t>勢力範圍</t>
+    <t>势力范围</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AE%96%E6%B0%91%E5%9C%B0</t>
@@ -1913,7 +1907,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%B4%E9%9A%B8%E8%B2%BF%E6%98%93</t>
   </si>
   <si>
-    <t>奴隸貿易</t>
+    <t>奴隶贸易</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E6%AE%96%E6%B0%91%E5%8C%96</t>
@@ -1937,13 +1931,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%B8%9D%E5%9C%8B%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>美帝國主義</t>
+    <t>美帝国主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%8D%E5%B8%9D%E5%9C%8B%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>反帝國主義</t>
+    <t>反帝国主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%B9%E8%AE%B8%E5%85%AC%E5%8F%B8</t>
@@ -1955,9 +1949,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%86%B7%E6%88%98</t>
   </si>
   <si>
-    <t>冷战</t>
-  </si>
-  <si>
     <t>https://en.wikipedia.org/wiki/Colonial_war</t>
   </si>
   <si>
@@ -2003,13 +1994,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9C%80%E5%A4%A7%E5%B8%9D%E5%9C%8B%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>最大帝國列表</t>
+    <t>最大帝国列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E6%B4%B2%E6%AE%96%E6%B0%91</t>
   </si>
   <si>
-    <t>亞洲殖民</t>
+    <t>亚洲殖民</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%98%AD%E6%98%AD%E5%A4%A9%E5%91%BD</t>
@@ -2045,13 +2036,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%AE%96%E6%B0%91%E5%9C%B0</t>
   </si>
   <si>
-    <t>美國殖民地</t>
+    <t>美国殖民地</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E8%98%AD%E5%B8%9D%E5%9C%8B</t>
   </si>
   <si>
-    <t>荷蘭帝國</t>
+    <t>荷兰帝国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A5%E5%8C%88%E5%B8%9D%E5%9B%BD</t>
@@ -2069,31 +2060,28 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E5%88%A9%E6%99%82%E6%AE%96%E6%B0%91%E5%9C%B0</t>
   </si>
   <si>
-    <t>比利時殖民地</t>
+    <t>比利时殖民地</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%98%AD%E8%A5%BF%E6%AE%96%E6%B0%91%E5%B8%9D%E5%9C%8B</t>
   </si>
   <si>
-    <t>法蘭西殖民帝國</t>
+    <t>法兰西殖民帝国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%91%A1%E8%90%84%E7%89%99%E5%B8%9D%E5%9C%8B</t>
   </si>
   <si>
-    <t>葡萄牙帝國</t>
+    <t>葡萄牙帝国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%8B%B1%E5%B8%9D%E5%9B%BD</t>
   </si>
   <si>
-    <t>大英帝国</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B%E6%AE%96%E6%B0%91%E5%9C%B0</t>
   </si>
   <si>
-    <t>德國殖民地</t>
+    <t>德国殖民地</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BD%97%E6%96%AF%E5%B8%9D%E5%9B%BD</t>
@@ -2117,13 +2105,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99%E5%B8%9D%E5%9C%8B</t>
   </si>
   <si>
-    <t>西班牙帝國</t>
+    <t>西班牙帝国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%B9%E9%BA%A5%E6%AE%96%E6%B0%91%E5%9C%B0</t>
   </si>
   <si>
-    <t>丹麥殖民地</t>
+    <t>丹麦殖民地</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%84%8F%E5%A4%A7%E5%88%A9%E6%AE%96%E6%B0%91%E5%9C%B0</t>
@@ -2141,7 +2129,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E4%BC%9A%E5%9B%BE%E4%B9%A6%E9%A6%86%E6%8E%A7%E5%88%B6%E5%8F%B7</t>
@@ -2159,13 +2147,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%A3%AB%E6%AD%B7%E5%8F%B2%E8%BE%AD%E5%85%B8</t>
   </si>
   <si>
-    <t>瑞士歷史辭典</t>
+    <t>瑞士历史辞典</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AE%96%E6%B0%91%E4%B8%BB%E4%B9%89</t>
@@ -5387,7 +5375,7 @@
         <v>195</v>
       </c>
       <c r="F99" t="s">
-        <v>196</v>
+        <v>112</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -5413,10 +5401,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
+        <v>196</v>
+      </c>
+      <c r="F100" t="s">
         <v>197</v>
-      </c>
-      <c r="F100" t="s">
-        <v>198</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -5442,10 +5430,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
+        <v>198</v>
+      </c>
+      <c r="F101" t="s">
         <v>199</v>
-      </c>
-      <c r="F101" t="s">
-        <v>200</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -5471,10 +5459,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
+        <v>200</v>
+      </c>
+      <c r="F102" t="s">
         <v>201</v>
-      </c>
-      <c r="F102" t="s">
-        <v>202</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -5500,10 +5488,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
+        <v>202</v>
+      </c>
+      <c r="F103" t="s">
         <v>203</v>
-      </c>
-      <c r="F103" t="s">
-        <v>204</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -5529,10 +5517,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
+        <v>204</v>
+      </c>
+      <c r="F104" t="s">
         <v>205</v>
-      </c>
-      <c r="F104" t="s">
-        <v>206</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -5558,10 +5546,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
+        <v>206</v>
+      </c>
+      <c r="F105" t="s">
         <v>207</v>
-      </c>
-      <c r="F105" t="s">
-        <v>208</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -5587,10 +5575,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
+        <v>208</v>
+      </c>
+      <c r="F106" t="s">
         <v>209</v>
-      </c>
-      <c r="F106" t="s">
-        <v>210</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -5616,10 +5604,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
+        <v>210</v>
+      </c>
+      <c r="F107" t="s">
         <v>211</v>
-      </c>
-      <c r="F107" t="s">
-        <v>212</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -5645,10 +5633,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
+        <v>212</v>
+      </c>
+      <c r="F108" t="s">
         <v>213</v>
-      </c>
-      <c r="F108" t="s">
-        <v>214</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -5674,10 +5662,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
+        <v>214</v>
+      </c>
+      <c r="F109" t="s">
         <v>215</v>
-      </c>
-      <c r="F109" t="s">
-        <v>216</v>
       </c>
       <c r="G109" t="n">
         <v>2</v>
@@ -5703,10 +5691,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
+        <v>216</v>
+      </c>
+      <c r="F110" t="s">
         <v>217</v>
-      </c>
-      <c r="F110" t="s">
-        <v>218</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -5732,10 +5720,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
+        <v>218</v>
+      </c>
+      <c r="F111" t="s">
         <v>219</v>
-      </c>
-      <c r="F111" t="s">
-        <v>220</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -5761,10 +5749,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
+        <v>220</v>
+      </c>
+      <c r="F112" t="s">
         <v>221</v>
-      </c>
-      <c r="F112" t="s">
-        <v>222</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -5790,10 +5778,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
+        <v>222</v>
+      </c>
+      <c r="F113" t="s">
         <v>223</v>
-      </c>
-      <c r="F113" t="s">
-        <v>224</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -5819,10 +5807,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
+        <v>224</v>
+      </c>
+      <c r="F114" t="s">
         <v>225</v>
-      </c>
-      <c r="F114" t="s">
-        <v>226</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -5848,10 +5836,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
+        <v>226</v>
+      </c>
+      <c r="F115" t="s">
         <v>227</v>
-      </c>
-      <c r="F115" t="s">
-        <v>228</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -5877,10 +5865,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
+        <v>228</v>
+      </c>
+      <c r="F116" t="s">
         <v>229</v>
-      </c>
-      <c r="F116" t="s">
-        <v>230</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -5906,10 +5894,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
+        <v>230</v>
+      </c>
+      <c r="F117" t="s">
         <v>231</v>
-      </c>
-      <c r="F117" t="s">
-        <v>232</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -5935,10 +5923,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
+        <v>232</v>
+      </c>
+      <c r="F118" t="s">
         <v>233</v>
-      </c>
-      <c r="F118" t="s">
-        <v>234</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -5964,10 +5952,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
+        <v>234</v>
+      </c>
+      <c r="F119" t="s">
         <v>235</v>
-      </c>
-      <c r="F119" t="s">
-        <v>236</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -5993,10 +5981,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
+        <v>236</v>
+      </c>
+      <c r="F120" t="s">
         <v>237</v>
-      </c>
-      <c r="F120" t="s">
-        <v>238</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -6022,10 +6010,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
+        <v>238</v>
+      </c>
+      <c r="F121" t="s">
         <v>239</v>
-      </c>
-      <c r="F121" t="s">
-        <v>240</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -6051,10 +6039,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
+        <v>240</v>
+      </c>
+      <c r="F122" t="s">
         <v>241</v>
-      </c>
-      <c r="F122" t="s">
-        <v>242</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -6080,10 +6068,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
+        <v>242</v>
+      </c>
+      <c r="F123" t="s">
         <v>243</v>
-      </c>
-      <c r="F123" t="s">
-        <v>244</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -6109,10 +6097,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
+        <v>244</v>
+      </c>
+      <c r="F124" t="s">
         <v>245</v>
-      </c>
-      <c r="F124" t="s">
-        <v>246</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -6138,10 +6126,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
+        <v>246</v>
+      </c>
+      <c r="F125" t="s">
         <v>247</v>
-      </c>
-      <c r="F125" t="s">
-        <v>248</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -6167,10 +6155,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
+        <v>248</v>
+      </c>
+      <c r="F126" t="s">
         <v>249</v>
-      </c>
-      <c r="F126" t="s">
-        <v>250</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -6196,10 +6184,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
+        <v>250</v>
+      </c>
+      <c r="F127" t="s">
         <v>251</v>
-      </c>
-      <c r="F127" t="s">
-        <v>252</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -6225,10 +6213,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
+        <v>252</v>
+      </c>
+      <c r="F128" t="s">
         <v>253</v>
-      </c>
-      <c r="F128" t="s">
-        <v>254</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -6254,10 +6242,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
+        <v>254</v>
+      </c>
+      <c r="F129" t="s">
         <v>255</v>
-      </c>
-      <c r="F129" t="s">
-        <v>256</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -6283,10 +6271,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
+        <v>256</v>
+      </c>
+      <c r="F130" t="s">
         <v>257</v>
-      </c>
-      <c r="F130" t="s">
-        <v>258</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -6312,10 +6300,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
+        <v>258</v>
+      </c>
+      <c r="F131" t="s">
         <v>259</v>
-      </c>
-      <c r="F131" t="s">
-        <v>260</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -6341,10 +6329,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
+        <v>260</v>
+      </c>
+      <c r="F132" t="s">
         <v>261</v>
-      </c>
-      <c r="F132" t="s">
-        <v>262</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -6370,10 +6358,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
+        <v>262</v>
+      </c>
+      <c r="F133" t="s">
         <v>263</v>
-      </c>
-      <c r="F133" t="s">
-        <v>264</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -6399,10 +6387,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
+        <v>264</v>
+      </c>
+      <c r="F134" t="s">
         <v>265</v>
-      </c>
-      <c r="F134" t="s">
-        <v>266</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -6428,10 +6416,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
+        <v>266</v>
+      </c>
+      <c r="F135" t="s">
         <v>267</v>
-      </c>
-      <c r="F135" t="s">
-        <v>268</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -6457,10 +6445,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
+        <v>268</v>
+      </c>
+      <c r="F136" t="s">
         <v>269</v>
-      </c>
-      <c r="F136" t="s">
-        <v>270</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -6486,10 +6474,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
+        <v>270</v>
+      </c>
+      <c r="F137" t="s">
         <v>271</v>
-      </c>
-      <c r="F137" t="s">
-        <v>272</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -6515,10 +6503,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
+        <v>272</v>
+      </c>
+      <c r="F138" t="s">
         <v>273</v>
-      </c>
-      <c r="F138" t="s">
-        <v>274</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -6544,10 +6532,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
+        <v>274</v>
+      </c>
+      <c r="F139" t="s">
         <v>275</v>
-      </c>
-      <c r="F139" t="s">
-        <v>276</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -6573,10 +6561,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
+        <v>276</v>
+      </c>
+      <c r="F140" t="s">
         <v>277</v>
-      </c>
-      <c r="F140" t="s">
-        <v>278</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -6602,10 +6590,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
+        <v>278</v>
+      </c>
+      <c r="F141" t="s">
         <v>279</v>
-      </c>
-      <c r="F141" t="s">
-        <v>280</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -6631,10 +6619,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
+        <v>280</v>
+      </c>
+      <c r="F142" t="s">
         <v>281</v>
-      </c>
-      <c r="F142" t="s">
-        <v>282</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -6660,10 +6648,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
+        <v>282</v>
+      </c>
+      <c r="F143" t="s">
         <v>283</v>
-      </c>
-      <c r="F143" t="s">
-        <v>284</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -6689,10 +6677,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
+        <v>284</v>
+      </c>
+      <c r="F144" t="s">
         <v>285</v>
-      </c>
-      <c r="F144" t="s">
-        <v>286</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -6718,10 +6706,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
+        <v>286</v>
+      </c>
+      <c r="F145" t="s">
         <v>287</v>
-      </c>
-      <c r="F145" t="s">
-        <v>288</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -6747,10 +6735,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
+        <v>288</v>
+      </c>
+      <c r="F146" t="s">
         <v>289</v>
-      </c>
-      <c r="F146" t="s">
-        <v>290</v>
       </c>
       <c r="G146" t="n">
         <v>9</v>
@@ -6776,10 +6764,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
+        <v>290</v>
+      </c>
+      <c r="F147" t="s">
         <v>291</v>
-      </c>
-      <c r="F147" t="s">
-        <v>292</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -6805,10 +6793,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
+        <v>292</v>
+      </c>
+      <c r="F148" t="s">
         <v>293</v>
-      </c>
-      <c r="F148" t="s">
-        <v>294</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -6834,10 +6822,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
+        <v>294</v>
+      </c>
+      <c r="F149" t="s">
         <v>295</v>
-      </c>
-      <c r="F149" t="s">
-        <v>296</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -6863,10 +6851,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
+        <v>296</v>
+      </c>
+      <c r="F150" t="s">
         <v>297</v>
-      </c>
-      <c r="F150" t="s">
-        <v>298</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -6892,10 +6880,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
+        <v>298</v>
+      </c>
+      <c r="F151" t="s">
         <v>299</v>
-      </c>
-      <c r="F151" t="s">
-        <v>300</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -6921,10 +6909,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
+        <v>300</v>
+      </c>
+      <c r="F152" t="s">
         <v>301</v>
-      </c>
-      <c r="F152" t="s">
-        <v>302</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -6950,10 +6938,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
+        <v>302</v>
+      </c>
+      <c r="F153" t="s">
         <v>303</v>
-      </c>
-      <c r="F153" t="s">
-        <v>304</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -6979,10 +6967,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
+        <v>304</v>
+      </c>
+      <c r="F154" t="s">
         <v>305</v>
-      </c>
-      <c r="F154" t="s">
-        <v>306</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -7008,10 +6996,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
+        <v>306</v>
+      </c>
+      <c r="F155" t="s">
         <v>307</v>
-      </c>
-      <c r="F155" t="s">
-        <v>308</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -7037,10 +7025,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
+        <v>308</v>
+      </c>
+      <c r="F156" t="s">
         <v>309</v>
-      </c>
-      <c r="F156" t="s">
-        <v>310</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -7066,10 +7054,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
+        <v>310</v>
+      </c>
+      <c r="F157" t="s">
         <v>311</v>
-      </c>
-      <c r="F157" t="s">
-        <v>312</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -7095,10 +7083,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
+        <v>312</v>
+      </c>
+      <c r="F158" t="s">
         <v>313</v>
-      </c>
-      <c r="F158" t="s">
-        <v>314</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -7124,10 +7112,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
+        <v>314</v>
+      </c>
+      <c r="F159" t="s">
         <v>315</v>
-      </c>
-      <c r="F159" t="s">
-        <v>316</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -7153,10 +7141,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
+        <v>316</v>
+      </c>
+      <c r="F160" t="s">
         <v>317</v>
-      </c>
-      <c r="F160" t="s">
-        <v>318</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -7182,10 +7170,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
+        <v>318</v>
+      </c>
+      <c r="F161" t="s">
         <v>319</v>
-      </c>
-      <c r="F161" t="s">
-        <v>320</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -7211,10 +7199,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
+        <v>320</v>
+      </c>
+      <c r="F162" t="s">
         <v>321</v>
-      </c>
-      <c r="F162" t="s">
-        <v>322</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -7240,10 +7228,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
+        <v>322</v>
+      </c>
+      <c r="F163" t="s">
         <v>323</v>
-      </c>
-      <c r="F163" t="s">
-        <v>324</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -7269,10 +7257,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
+        <v>324</v>
+      </c>
+      <c r="F164" t="s">
         <v>325</v>
-      </c>
-      <c r="F164" t="s">
-        <v>326</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -7298,10 +7286,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
+        <v>326</v>
+      </c>
+      <c r="F165" t="s">
         <v>327</v>
-      </c>
-      <c r="F165" t="s">
-        <v>328</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -7327,10 +7315,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
+        <v>328</v>
+      </c>
+      <c r="F166" t="s">
         <v>329</v>
-      </c>
-      <c r="F166" t="s">
-        <v>330</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -7356,10 +7344,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
+        <v>330</v>
+      </c>
+      <c r="F167" t="s">
         <v>331</v>
-      </c>
-      <c r="F167" t="s">
-        <v>332</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -7385,10 +7373,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
+        <v>332</v>
+      </c>
+      <c r="F168" t="s">
         <v>333</v>
-      </c>
-      <c r="F168" t="s">
-        <v>334</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -7414,10 +7402,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
+        <v>334</v>
+      </c>
+      <c r="F169" t="s">
         <v>335</v>
-      </c>
-      <c r="F169" t="s">
-        <v>336</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -7443,10 +7431,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
+        <v>336</v>
+      </c>
+      <c r="F170" t="s">
         <v>337</v>
-      </c>
-      <c r="F170" t="s">
-        <v>338</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -7472,10 +7460,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
+        <v>338</v>
+      </c>
+      <c r="F171" t="s">
         <v>339</v>
-      </c>
-      <c r="F171" t="s">
-        <v>340</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -7501,10 +7489,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
+        <v>340</v>
+      </c>
+      <c r="F172" t="s">
         <v>341</v>
-      </c>
-      <c r="F172" t="s">
-        <v>342</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -7530,10 +7518,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
+        <v>342</v>
+      </c>
+      <c r="F173" t="s">
         <v>343</v>
-      </c>
-      <c r="F173" t="s">
-        <v>344</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -7559,10 +7547,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
+        <v>344</v>
+      </c>
+      <c r="F174" t="s">
         <v>345</v>
-      </c>
-      <c r="F174" t="s">
-        <v>346</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -7588,10 +7576,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
+        <v>346</v>
+      </c>
+      <c r="F175" t="s">
         <v>347</v>
-      </c>
-      <c r="F175" t="s">
-        <v>348</v>
       </c>
       <c r="G175" t="n">
         <v>2</v>
@@ -7617,10 +7605,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
+        <v>348</v>
+      </c>
+      <c r="F176" t="s">
         <v>349</v>
-      </c>
-      <c r="F176" t="s">
-        <v>350</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -7646,10 +7634,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
+        <v>350</v>
+      </c>
+      <c r="F177" t="s">
         <v>351</v>
-      </c>
-      <c r="F177" t="s">
-        <v>352</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -7675,10 +7663,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
+        <v>352</v>
+      </c>
+      <c r="F178" t="s">
         <v>353</v>
-      </c>
-      <c r="F178" t="s">
-        <v>354</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -7704,10 +7692,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
+        <v>354</v>
+      </c>
+      <c r="F179" t="s">
         <v>355</v>
-      </c>
-      <c r="F179" t="s">
-        <v>356</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -7733,10 +7721,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
+        <v>356</v>
+      </c>
+      <c r="F180" t="s">
         <v>357</v>
-      </c>
-      <c r="F180" t="s">
-        <v>358</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -7762,10 +7750,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
+        <v>358</v>
+      </c>
+      <c r="F181" t="s">
         <v>359</v>
-      </c>
-      <c r="F181" t="s">
-        <v>360</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -7791,10 +7779,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
+        <v>360</v>
+      </c>
+      <c r="F182" t="s">
         <v>361</v>
-      </c>
-      <c r="F182" t="s">
-        <v>362</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -7820,10 +7808,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
+        <v>362</v>
+      </c>
+      <c r="F183" t="s">
         <v>363</v>
-      </c>
-      <c r="F183" t="s">
-        <v>364</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -7849,10 +7837,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
+        <v>364</v>
+      </c>
+      <c r="F184" t="s">
         <v>365</v>
-      </c>
-      <c r="F184" t="s">
-        <v>366</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -7878,10 +7866,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
+        <v>366</v>
+      </c>
+      <c r="F185" t="s">
         <v>367</v>
-      </c>
-      <c r="F185" t="s">
-        <v>368</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -7907,10 +7895,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
+        <v>368</v>
+      </c>
+      <c r="F186" t="s">
         <v>369</v>
-      </c>
-      <c r="F186" t="s">
-        <v>370</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -7936,10 +7924,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
+        <v>370</v>
+      </c>
+      <c r="F187" t="s">
         <v>371</v>
-      </c>
-      <c r="F187" t="s">
-        <v>372</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -7965,10 +7953,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
+        <v>372</v>
+      </c>
+      <c r="F188" t="s">
         <v>373</v>
-      </c>
-      <c r="F188" t="s">
-        <v>374</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -7994,10 +7982,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
+        <v>374</v>
+      </c>
+      <c r="F189" t="s">
         <v>375</v>
-      </c>
-      <c r="F189" t="s">
-        <v>376</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -8023,10 +8011,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
+        <v>376</v>
+      </c>
+      <c r="F190" t="s">
         <v>377</v>
-      </c>
-      <c r="F190" t="s">
-        <v>378</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -8052,10 +8040,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
+        <v>378</v>
+      </c>
+      <c r="F191" t="s">
         <v>379</v>
-      </c>
-      <c r="F191" t="s">
-        <v>380</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -8081,10 +8069,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
+        <v>380</v>
+      </c>
+      <c r="F192" t="s">
         <v>381</v>
-      </c>
-      <c r="F192" t="s">
-        <v>382</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -8110,10 +8098,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
+        <v>382</v>
+      </c>
+      <c r="F193" t="s">
         <v>383</v>
-      </c>
-      <c r="F193" t="s">
-        <v>384</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -8139,10 +8127,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
+        <v>384</v>
+      </c>
+      <c r="F194" t="s">
         <v>385</v>
-      </c>
-      <c r="F194" t="s">
-        <v>386</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -8168,10 +8156,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
+        <v>386</v>
+      </c>
+      <c r="F195" t="s">
         <v>387</v>
-      </c>
-      <c r="F195" t="s">
-        <v>388</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -8197,10 +8185,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
+        <v>388</v>
+      </c>
+      <c r="F196" t="s">
         <v>389</v>
-      </c>
-      <c r="F196" t="s">
-        <v>390</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -8226,10 +8214,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
+        <v>390</v>
+      </c>
+      <c r="F197" t="s">
         <v>391</v>
-      </c>
-      <c r="F197" t="s">
-        <v>392</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -8255,10 +8243,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
+        <v>392</v>
+      </c>
+      <c r="F198" t="s">
         <v>393</v>
-      </c>
-      <c r="F198" t="s">
-        <v>394</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -8284,10 +8272,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
+        <v>394</v>
+      </c>
+      <c r="F199" t="s">
         <v>395</v>
-      </c>
-      <c r="F199" t="s">
-        <v>396</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -8313,10 +8301,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
+        <v>396</v>
+      </c>
+      <c r="F200" t="s">
         <v>397</v>
-      </c>
-      <c r="F200" t="s">
-        <v>398</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -8342,10 +8330,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
+        <v>398</v>
+      </c>
+      <c r="F201" t="s">
         <v>399</v>
-      </c>
-      <c r="F201" t="s">
-        <v>400</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -8371,10 +8359,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
+        <v>400</v>
+      </c>
+      <c r="F202" t="s">
         <v>401</v>
-      </c>
-      <c r="F202" t="s">
-        <v>402</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -8400,10 +8388,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
+        <v>402</v>
+      </c>
+      <c r="F203" t="s">
         <v>403</v>
-      </c>
-      <c r="F203" t="s">
-        <v>404</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -8429,10 +8417,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
+        <v>404</v>
+      </c>
+      <c r="F204" t="s">
         <v>405</v>
-      </c>
-      <c r="F204" t="s">
-        <v>406</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -8458,10 +8446,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
+        <v>406</v>
+      </c>
+      <c r="F205" t="s">
         <v>407</v>
-      </c>
-      <c r="F205" t="s">
-        <v>408</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -8487,10 +8475,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
+        <v>408</v>
+      </c>
+      <c r="F206" t="s">
         <v>409</v>
-      </c>
-      <c r="F206" t="s">
-        <v>410</v>
       </c>
       <c r="G206" t="n">
         <v>2</v>
@@ -8516,10 +8504,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
+        <v>410</v>
+      </c>
+      <c r="F207" t="s">
         <v>411</v>
-      </c>
-      <c r="F207" t="s">
-        <v>412</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -8545,10 +8533,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
+        <v>412</v>
+      </c>
+      <c r="F208" t="s">
         <v>413</v>
-      </c>
-      <c r="F208" t="s">
-        <v>414</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -8574,10 +8562,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
+        <v>414</v>
+      </c>
+      <c r="F209" t="s">
         <v>415</v>
-      </c>
-      <c r="F209" t="s">
-        <v>416</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -8603,10 +8591,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
+        <v>416</v>
+      </c>
+      <c r="F210" t="s">
         <v>417</v>
-      </c>
-      <c r="F210" t="s">
-        <v>418</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -8632,10 +8620,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
+        <v>418</v>
+      </c>
+      <c r="F211" t="s">
         <v>419</v>
-      </c>
-      <c r="F211" t="s">
-        <v>420</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -8661,10 +8649,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
+        <v>420</v>
+      </c>
+      <c r="F212" t="s">
         <v>421</v>
-      </c>
-      <c r="F212" t="s">
-        <v>422</v>
       </c>
       <c r="G212" t="n">
         <v>1</v>
@@ -8690,10 +8678,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
+        <v>422</v>
+      </c>
+      <c r="F213" t="s">
         <v>423</v>
-      </c>
-      <c r="F213" t="s">
-        <v>424</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
@@ -8719,10 +8707,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
+        <v>424</v>
+      </c>
+      <c r="F214" t="s">
         <v>425</v>
-      </c>
-      <c r="F214" t="s">
-        <v>426</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -8748,10 +8736,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
+        <v>426</v>
+      </c>
+      <c r="F215" t="s">
         <v>427</v>
-      </c>
-      <c r="F215" t="s">
-        <v>428</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -8777,10 +8765,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
+        <v>428</v>
+      </c>
+      <c r="F216" t="s">
         <v>429</v>
-      </c>
-      <c r="F216" t="s">
-        <v>430</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -8806,10 +8794,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
+        <v>430</v>
+      </c>
+      <c r="F217" t="s">
         <v>431</v>
-      </c>
-      <c r="F217" t="s">
-        <v>432</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -8835,10 +8823,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
+        <v>432</v>
+      </c>
+      <c r="F218" t="s">
         <v>433</v>
-      </c>
-      <c r="F218" t="s">
-        <v>434</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
@@ -8864,10 +8852,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
+        <v>434</v>
+      </c>
+      <c r="F219" t="s">
         <v>435</v>
-      </c>
-      <c r="F219" t="s">
-        <v>436</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
@@ -8893,10 +8881,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
+        <v>436</v>
+      </c>
+      <c r="F220" t="s">
         <v>437</v>
-      </c>
-      <c r="F220" t="s">
-        <v>438</v>
       </c>
       <c r="G220" t="n">
         <v>1</v>
@@ -8922,10 +8910,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
+        <v>438</v>
+      </c>
+      <c r="F221" t="s">
         <v>439</v>
-      </c>
-      <c r="F221" t="s">
-        <v>440</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
@@ -8951,10 +8939,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
+        <v>440</v>
+      </c>
+      <c r="F222" t="s">
         <v>441</v>
-      </c>
-      <c r="F222" t="s">
-        <v>442</v>
       </c>
       <c r="G222" t="n">
         <v>1</v>
@@ -8980,10 +8968,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
+        <v>442</v>
+      </c>
+      <c r="F223" t="s">
         <v>443</v>
-      </c>
-      <c r="F223" t="s">
-        <v>444</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
@@ -9009,10 +8997,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
+        <v>444</v>
+      </c>
+      <c r="F224" t="s">
         <v>445</v>
-      </c>
-      <c r="F224" t="s">
-        <v>446</v>
       </c>
       <c r="G224" t="n">
         <v>1</v>
@@ -9038,10 +9026,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
+        <v>446</v>
+      </c>
+      <c r="F225" t="s">
         <v>447</v>
-      </c>
-      <c r="F225" t="s">
-        <v>448</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -9067,10 +9055,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
+        <v>448</v>
+      </c>
+      <c r="F226" t="s">
         <v>449</v>
-      </c>
-      <c r="F226" t="s">
-        <v>450</v>
       </c>
       <c r="G226" t="n">
         <v>1</v>
@@ -9096,10 +9084,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
+        <v>450</v>
+      </c>
+      <c r="F227" t="s">
         <v>451</v>
-      </c>
-      <c r="F227" t="s">
-        <v>452</v>
       </c>
       <c r="G227" t="n">
         <v>1</v>
@@ -9125,10 +9113,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
+        <v>452</v>
+      </c>
+      <c r="F228" t="s">
         <v>453</v>
-      </c>
-      <c r="F228" t="s">
-        <v>454</v>
       </c>
       <c r="G228" t="n">
         <v>1</v>
@@ -9154,10 +9142,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
+        <v>454</v>
+      </c>
+      <c r="F229" t="s">
         <v>455</v>
-      </c>
-      <c r="F229" t="s">
-        <v>456</v>
       </c>
       <c r="G229" t="n">
         <v>1</v>
@@ -9183,10 +9171,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
+        <v>456</v>
+      </c>
+      <c r="F230" t="s">
         <v>457</v>
-      </c>
-      <c r="F230" t="s">
-        <v>458</v>
       </c>
       <c r="G230" t="n">
         <v>1</v>
@@ -9212,10 +9200,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
+        <v>458</v>
+      </c>
+      <c r="F231" t="s">
         <v>459</v>
-      </c>
-      <c r="F231" t="s">
-        <v>460</v>
       </c>
       <c r="G231" t="n">
         <v>1</v>
@@ -9241,10 +9229,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
+        <v>460</v>
+      </c>
+      <c r="F232" t="s">
         <v>461</v>
-      </c>
-      <c r="F232" t="s">
-        <v>462</v>
       </c>
       <c r="G232" t="n">
         <v>1</v>
@@ -9270,10 +9258,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
+        <v>462</v>
+      </c>
+      <c r="F233" t="s">
         <v>463</v>
-      </c>
-      <c r="F233" t="s">
-        <v>464</v>
       </c>
       <c r="G233" t="n">
         <v>1</v>
@@ -9299,10 +9287,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
+        <v>464</v>
+      </c>
+      <c r="F234" t="s">
         <v>465</v>
-      </c>
-      <c r="F234" t="s">
-        <v>466</v>
       </c>
       <c r="G234" t="n">
         <v>1</v>
@@ -9328,10 +9316,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
+        <v>466</v>
+      </c>
+      <c r="F235" t="s">
         <v>467</v>
-      </c>
-      <c r="F235" t="s">
-        <v>468</v>
       </c>
       <c r="G235" t="n">
         <v>1</v>
@@ -9357,10 +9345,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
+        <v>468</v>
+      </c>
+      <c r="F236" t="s">
         <v>469</v>
-      </c>
-      <c r="F236" t="s">
-        <v>470</v>
       </c>
       <c r="G236" t="n">
         <v>1</v>
@@ -9386,10 +9374,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
+        <v>470</v>
+      </c>
+      <c r="F237" t="s">
         <v>471</v>
-      </c>
-      <c r="F237" t="s">
-        <v>472</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
@@ -9415,10 +9403,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
+        <v>472</v>
+      </c>
+      <c r="F238" t="s">
         <v>473</v>
-      </c>
-      <c r="F238" t="s">
-        <v>474</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
@@ -9444,10 +9432,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
+        <v>474</v>
+      </c>
+      <c r="F239" t="s">
         <v>475</v>
-      </c>
-      <c r="F239" t="s">
-        <v>476</v>
       </c>
       <c r="G239" t="n">
         <v>1</v>
@@ -9473,10 +9461,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
+        <v>476</v>
+      </c>
+      <c r="F240" t="s">
         <v>477</v>
-      </c>
-      <c r="F240" t="s">
-        <v>478</v>
       </c>
       <c r="G240" t="n">
         <v>1</v>
@@ -9502,10 +9490,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
+        <v>478</v>
+      </c>
+      <c r="F241" t="s">
         <v>479</v>
-      </c>
-      <c r="F241" t="s">
-        <v>480</v>
       </c>
       <c r="G241" t="n">
         <v>1</v>
@@ -9531,10 +9519,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
+        <v>480</v>
+      </c>
+      <c r="F242" t="s">
         <v>481</v>
-      </c>
-      <c r="F242" t="s">
-        <v>482</v>
       </c>
       <c r="G242" t="n">
         <v>1</v>
@@ -9560,10 +9548,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
+        <v>482</v>
+      </c>
+      <c r="F243" t="s">
         <v>483</v>
-      </c>
-      <c r="F243" t="s">
-        <v>484</v>
       </c>
       <c r="G243" t="n">
         <v>1</v>
@@ -9589,10 +9577,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
+        <v>484</v>
+      </c>
+      <c r="F244" t="s">
         <v>485</v>
-      </c>
-      <c r="F244" t="s">
-        <v>486</v>
       </c>
       <c r="G244" t="n">
         <v>1</v>
@@ -9618,10 +9606,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
+        <v>486</v>
+      </c>
+      <c r="F245" t="s">
         <v>487</v>
-      </c>
-      <c r="F245" t="s">
-        <v>488</v>
       </c>
       <c r="G245" t="n">
         <v>2</v>
@@ -9647,10 +9635,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
+        <v>488</v>
+      </c>
+      <c r="F246" t="s">
         <v>489</v>
-      </c>
-      <c r="F246" t="s">
-        <v>490</v>
       </c>
       <c r="G246" t="n">
         <v>1</v>
@@ -9676,10 +9664,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
+        <v>490</v>
+      </c>
+      <c r="F247" t="s">
         <v>491</v>
-      </c>
-      <c r="F247" t="s">
-        <v>492</v>
       </c>
       <c r="G247" t="n">
         <v>1</v>
@@ -9705,10 +9693,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
+        <v>492</v>
+      </c>
+      <c r="F248" t="s">
         <v>493</v>
-      </c>
-      <c r="F248" t="s">
-        <v>494</v>
       </c>
       <c r="G248" t="n">
         <v>2</v>
@@ -9734,10 +9722,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
+        <v>494</v>
+      </c>
+      <c r="F249" t="s">
         <v>495</v>
-      </c>
-      <c r="F249" t="s">
-        <v>496</v>
       </c>
       <c r="G249" t="n">
         <v>2</v>
@@ -9763,10 +9751,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
+        <v>496</v>
+      </c>
+      <c r="F250" t="s">
         <v>497</v>
-      </c>
-      <c r="F250" t="s">
-        <v>498</v>
       </c>
       <c r="G250" t="n">
         <v>1</v>
@@ -9792,10 +9780,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
+        <v>498</v>
+      </c>
+      <c r="F251" t="s">
         <v>499</v>
-      </c>
-      <c r="F251" t="s">
-        <v>500</v>
       </c>
       <c r="G251" t="n">
         <v>1</v>
@@ -9821,10 +9809,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
+        <v>500</v>
+      </c>
+      <c r="F252" t="s">
         <v>501</v>
-      </c>
-      <c r="F252" t="s">
-        <v>502</v>
       </c>
       <c r="G252" t="n">
         <v>1</v>
@@ -9850,10 +9838,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
+        <v>502</v>
+      </c>
+      <c r="F253" t="s">
         <v>503</v>
-      </c>
-      <c r="F253" t="s">
-        <v>504</v>
       </c>
       <c r="G253" t="n">
         <v>1</v>
@@ -9879,10 +9867,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
+        <v>504</v>
+      </c>
+      <c r="F254" t="s">
         <v>505</v>
-      </c>
-      <c r="F254" t="s">
-        <v>506</v>
       </c>
       <c r="G254" t="n">
         <v>2</v>
@@ -9908,10 +9896,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
+        <v>506</v>
+      </c>
+      <c r="F255" t="s">
         <v>507</v>
-      </c>
-      <c r="F255" t="s">
-        <v>508</v>
       </c>
       <c r="G255" t="n">
         <v>1</v>
@@ -9937,10 +9925,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
+        <v>508</v>
+      </c>
+      <c r="F256" t="s">
         <v>509</v>
-      </c>
-      <c r="F256" t="s">
-        <v>510</v>
       </c>
       <c r="G256" t="n">
         <v>1</v>
@@ -9966,10 +9954,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
+        <v>510</v>
+      </c>
+      <c r="F257" t="s">
         <v>511</v>
-      </c>
-      <c r="F257" t="s">
-        <v>512</v>
       </c>
       <c r="G257" t="n">
         <v>1</v>
@@ -9995,10 +9983,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
+        <v>512</v>
+      </c>
+      <c r="F258" t="s">
         <v>513</v>
-      </c>
-      <c r="F258" t="s">
-        <v>514</v>
       </c>
       <c r="G258" t="n">
         <v>1</v>
@@ -10024,10 +10012,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
+        <v>514</v>
+      </c>
+      <c r="F259" t="s">
         <v>515</v>
-      </c>
-      <c r="F259" t="s">
-        <v>516</v>
       </c>
       <c r="G259" t="n">
         <v>1</v>
@@ -10053,10 +10041,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
+        <v>516</v>
+      </c>
+      <c r="F260" t="s">
         <v>517</v>
-      </c>
-      <c r="F260" t="s">
-        <v>518</v>
       </c>
       <c r="G260" t="n">
         <v>1</v>
@@ -10082,10 +10070,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
+        <v>518</v>
+      </c>
+      <c r="F261" t="s">
         <v>519</v>
-      </c>
-      <c r="F261" t="s">
-        <v>520</v>
       </c>
       <c r="G261" t="n">
         <v>1</v>
@@ -10111,10 +10099,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
+        <v>520</v>
+      </c>
+      <c r="F262" t="s">
         <v>521</v>
-      </c>
-      <c r="F262" t="s">
-        <v>522</v>
       </c>
       <c r="G262" t="n">
         <v>1</v>
@@ -10140,10 +10128,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
+        <v>522</v>
+      </c>
+      <c r="F263" t="s">
         <v>523</v>
-      </c>
-      <c r="F263" t="s">
-        <v>524</v>
       </c>
       <c r="G263" t="n">
         <v>1</v>
@@ -10169,10 +10157,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
+        <v>524</v>
+      </c>
+      <c r="F264" t="s">
         <v>525</v>
-      </c>
-      <c r="F264" t="s">
-        <v>526</v>
       </c>
       <c r="G264" t="n">
         <v>1</v>
@@ -10198,10 +10186,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
+        <v>526</v>
+      </c>
+      <c r="F265" t="s">
         <v>527</v>
-      </c>
-      <c r="F265" t="s">
-        <v>528</v>
       </c>
       <c r="G265" t="n">
         <v>1</v>
@@ -10227,10 +10215,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
+        <v>528</v>
+      </c>
+      <c r="F266" t="s">
         <v>529</v>
-      </c>
-      <c r="F266" t="s">
-        <v>530</v>
       </c>
       <c r="G266" t="n">
         <v>1</v>
@@ -10256,10 +10244,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
+        <v>530</v>
+      </c>
+      <c r="F267" t="s">
         <v>531</v>
-      </c>
-      <c r="F267" t="s">
-        <v>532</v>
       </c>
       <c r="G267" t="n">
         <v>2</v>
@@ -10285,10 +10273,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
+        <v>532</v>
+      </c>
+      <c r="F268" t="s">
         <v>533</v>
-      </c>
-      <c r="F268" t="s">
-        <v>534</v>
       </c>
       <c r="G268" t="n">
         <v>1</v>
@@ -10314,10 +10302,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
+        <v>534</v>
+      </c>
+      <c r="F269" t="s">
         <v>535</v>
-      </c>
-      <c r="F269" t="s">
-        <v>536</v>
       </c>
       <c r="G269" t="n">
         <v>1</v>
@@ -10343,10 +10331,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
+        <v>536</v>
+      </c>
+      <c r="F270" t="s">
         <v>537</v>
-      </c>
-      <c r="F270" t="s">
-        <v>538</v>
       </c>
       <c r="G270" t="n">
         <v>2</v>
@@ -10372,10 +10360,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
+        <v>538</v>
+      </c>
+      <c r="F271" t="s">
         <v>539</v>
-      </c>
-      <c r="F271" t="s">
-        <v>540</v>
       </c>
       <c r="G271" t="n">
         <v>1</v>
@@ -10401,10 +10389,10 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
+        <v>540</v>
+      </c>
+      <c r="F272" t="s">
         <v>541</v>
-      </c>
-      <c r="F272" t="s">
-        <v>542</v>
       </c>
       <c r="G272" t="n">
         <v>1</v>
@@ -10430,10 +10418,10 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
+        <v>542</v>
+      </c>
+      <c r="F273" t="s">
         <v>543</v>
-      </c>
-      <c r="F273" t="s">
-        <v>544</v>
       </c>
       <c r="G273" t="n">
         <v>6</v>
@@ -10459,10 +10447,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
+        <v>544</v>
+      </c>
+      <c r="F274" t="s">
         <v>545</v>
-      </c>
-      <c r="F274" t="s">
-        <v>546</v>
       </c>
       <c r="G274" t="n">
         <v>7</v>
@@ -10488,10 +10476,10 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
+        <v>546</v>
+      </c>
+      <c r="F275" t="s">
         <v>547</v>
-      </c>
-      <c r="F275" t="s">
-        <v>548</v>
       </c>
       <c r="G275" t="n">
         <v>6</v>
@@ -10517,10 +10505,10 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
+        <v>548</v>
+      </c>
+      <c r="F276" t="s">
         <v>549</v>
-      </c>
-      <c r="F276" t="s">
-        <v>550</v>
       </c>
       <c r="G276" t="n">
         <v>1</v>
@@ -10546,10 +10534,10 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
+        <v>550</v>
+      </c>
+      <c r="F277" t="s">
         <v>551</v>
-      </c>
-      <c r="F277" t="s">
-        <v>552</v>
       </c>
       <c r="G277" t="n">
         <v>3</v>
@@ -10575,10 +10563,10 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
+        <v>552</v>
+      </c>
+      <c r="F278" t="s">
         <v>553</v>
-      </c>
-      <c r="F278" t="s">
-        <v>554</v>
       </c>
       <c r="G278" t="n">
         <v>4</v>
@@ -10604,10 +10592,10 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
+        <v>554</v>
+      </c>
+      <c r="F279" t="s">
         <v>555</v>
-      </c>
-      <c r="F279" t="s">
-        <v>556</v>
       </c>
       <c r="G279" t="n">
         <v>1</v>
@@ -10633,10 +10621,10 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
+        <v>556</v>
+      </c>
+      <c r="F280" t="s">
         <v>557</v>
-      </c>
-      <c r="F280" t="s">
-        <v>558</v>
       </c>
       <c r="G280" t="n">
         <v>15</v>
@@ -10662,10 +10650,10 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
+        <v>536</v>
+      </c>
+      <c r="F281" t="s">
         <v>537</v>
-      </c>
-      <c r="F281" t="s">
-        <v>538</v>
       </c>
       <c r="G281" t="n">
         <v>1</v>
@@ -10691,10 +10679,10 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
+        <v>558</v>
+      </c>
+      <c r="F282" t="s">
         <v>559</v>
-      </c>
-      <c r="F282" t="s">
-        <v>560</v>
       </c>
       <c r="G282" t="n">
         <v>1</v>
@@ -10720,10 +10708,10 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
+        <v>560</v>
+      </c>
+      <c r="F283" t="s">
         <v>561</v>
-      </c>
-      <c r="F283" t="s">
-        <v>562</v>
       </c>
       <c r="G283" t="n">
         <v>1</v>
@@ -10749,10 +10737,10 @@
         <v>283</v>
       </c>
       <c r="E284" t="s">
+        <v>562</v>
+      </c>
+      <c r="F284" t="s">
         <v>563</v>
-      </c>
-      <c r="F284" t="s">
-        <v>564</v>
       </c>
       <c r="G284" t="n">
         <v>1</v>
@@ -10778,10 +10766,10 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
+        <v>564</v>
+      </c>
+      <c r="F285" t="s">
         <v>565</v>
-      </c>
-      <c r="F285" t="s">
-        <v>566</v>
       </c>
       <c r="G285" t="n">
         <v>2</v>
@@ -10807,10 +10795,10 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
+        <v>566</v>
+      </c>
+      <c r="F286" t="s">
         <v>567</v>
-      </c>
-      <c r="F286" t="s">
-        <v>568</v>
       </c>
       <c r="G286" t="n">
         <v>11</v>
@@ -10836,10 +10824,10 @@
         <v>286</v>
       </c>
       <c r="E287" t="s">
+        <v>568</v>
+      </c>
+      <c r="F287" t="s">
         <v>569</v>
-      </c>
-      <c r="F287" t="s">
-        <v>570</v>
       </c>
       <c r="G287" t="n">
         <v>1</v>
@@ -10865,10 +10853,10 @@
         <v>287</v>
       </c>
       <c r="E288" t="s">
+        <v>560</v>
+      </c>
+      <c r="F288" t="s">
         <v>561</v>
-      </c>
-      <c r="F288" t="s">
-        <v>562</v>
       </c>
       <c r="G288" t="n">
         <v>1</v>
@@ -10894,10 +10882,10 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
+        <v>570</v>
+      </c>
+      <c r="F289" t="s">
         <v>571</v>
-      </c>
-      <c r="F289" t="s">
-        <v>572</v>
       </c>
       <c r="G289" t="n">
         <v>1</v>
@@ -10923,10 +10911,10 @@
         <v>289</v>
       </c>
       <c r="E290" t="s">
+        <v>572</v>
+      </c>
+      <c r="F290" t="s">
         <v>573</v>
-      </c>
-      <c r="F290" t="s">
-        <v>574</v>
       </c>
       <c r="G290" t="n">
         <v>2</v>
@@ -10952,10 +10940,10 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
+        <v>574</v>
+      </c>
+      <c r="F291" t="s">
         <v>575</v>
-      </c>
-      <c r="F291" t="s">
-        <v>576</v>
       </c>
       <c r="G291" t="n">
         <v>1</v>
@@ -10981,10 +10969,10 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
+        <v>576</v>
+      </c>
+      <c r="F292" t="s">
         <v>577</v>
-      </c>
-      <c r="F292" t="s">
-        <v>578</v>
       </c>
       <c r="G292" t="n">
         <v>1</v>
@@ -11010,10 +10998,10 @@
         <v>292</v>
       </c>
       <c r="E293" t="s">
+        <v>578</v>
+      </c>
+      <c r="F293" t="s">
         <v>579</v>
-      </c>
-      <c r="F293" t="s">
-        <v>580</v>
       </c>
       <c r="G293" t="n">
         <v>1</v>
@@ -11039,10 +11027,10 @@
         <v>293</v>
       </c>
       <c r="E294" t="s">
+        <v>580</v>
+      </c>
+      <c r="F294" t="s">
         <v>581</v>
-      </c>
-      <c r="F294" t="s">
-        <v>582</v>
       </c>
       <c r="G294" t="n">
         <v>1</v>
@@ -11068,10 +11056,10 @@
         <v>294</v>
       </c>
       <c r="E295" t="s">
+        <v>582</v>
+      </c>
+      <c r="F295" t="s">
         <v>583</v>
-      </c>
-      <c r="F295" t="s">
-        <v>584</v>
       </c>
       <c r="G295" t="n">
         <v>1</v>
@@ -11097,10 +11085,10 @@
         <v>295</v>
       </c>
       <c r="E296" t="s">
+        <v>584</v>
+      </c>
+      <c r="F296" t="s">
         <v>585</v>
-      </c>
-      <c r="F296" t="s">
-        <v>586</v>
       </c>
       <c r="G296" t="n">
         <v>2</v>
@@ -11126,10 +11114,10 @@
         <v>296</v>
       </c>
       <c r="E297" t="s">
+        <v>586</v>
+      </c>
+      <c r="F297" t="s">
         <v>587</v>
-      </c>
-      <c r="F297" t="s">
-        <v>588</v>
       </c>
       <c r="G297" t="n">
         <v>3</v>
@@ -11155,10 +11143,10 @@
         <v>297</v>
       </c>
       <c r="E298" t="s">
+        <v>588</v>
+      </c>
+      <c r="F298" t="s">
         <v>589</v>
-      </c>
-      <c r="F298" t="s">
-        <v>590</v>
       </c>
       <c r="G298" t="n">
         <v>1</v>
@@ -11184,10 +11172,10 @@
         <v>298</v>
       </c>
       <c r="E299" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="F299" t="s">
-        <v>592</v>
+        <v>553</v>
       </c>
       <c r="G299" t="n">
         <v>1</v>
@@ -11213,10 +11201,10 @@
         <v>299</v>
       </c>
       <c r="E300" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="F300" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="G300" t="n">
         <v>4</v>
@@ -11242,10 +11230,10 @@
         <v>300</v>
       </c>
       <c r="E301" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="F301" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="G301" t="n">
         <v>1</v>
@@ -11271,10 +11259,10 @@
         <v>301</v>
       </c>
       <c r="E302" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="F302" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="G302" t="n">
         <v>1</v>
@@ -11300,10 +11288,10 @@
         <v>302</v>
       </c>
       <c r="E303" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="F303" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="G303" t="n">
         <v>1</v>
@@ -11329,10 +11317,10 @@
         <v>303</v>
       </c>
       <c r="E304" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="F304" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="G304" t="n">
         <v>1</v>
@@ -11358,10 +11346,10 @@
         <v>304</v>
       </c>
       <c r="E305" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="F305" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="G305" t="n">
         <v>3</v>
@@ -11387,10 +11375,10 @@
         <v>305</v>
       </c>
       <c r="E306" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="F306" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="G306" t="n">
         <v>1</v>
@@ -11416,10 +11404,10 @@
         <v>306</v>
       </c>
       <c r="E307" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="F307" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="G307" t="n">
         <v>1</v>
@@ -11445,10 +11433,10 @@
         <v>307</v>
       </c>
       <c r="E308" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="F308" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="G308" t="n">
         <v>1</v>
@@ -11474,10 +11462,10 @@
         <v>308</v>
       </c>
       <c r="E309" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="F309" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="G309" t="n">
         <v>1</v>
@@ -11503,10 +11491,10 @@
         <v>309</v>
       </c>
       <c r="E310" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="F310" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="G310" t="n">
         <v>1</v>
@@ -11532,10 +11520,10 @@
         <v>310</v>
       </c>
       <c r="E311" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="F311" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="G311" t="n">
         <v>1</v>
@@ -11561,10 +11549,10 @@
         <v>311</v>
       </c>
       <c r="E312" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="F312" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="G312" t="n">
         <v>78</v>
@@ -11590,10 +11578,10 @@
         <v>312</v>
       </c>
       <c r="E313" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="F313" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="G313" t="n">
         <v>1</v>
@@ -11619,10 +11607,10 @@
         <v>313</v>
       </c>
       <c r="E314" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="F314" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="G314" t="n">
         <v>1</v>
@@ -11648,10 +11636,10 @@
         <v>314</v>
       </c>
       <c r="E315" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="F315" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="G315" t="n">
         <v>1</v>
@@ -11677,10 +11665,10 @@
         <v>315</v>
       </c>
       <c r="E316" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="F316" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="G316" t="n">
         <v>1</v>
@@ -11706,10 +11694,10 @@
         <v>316</v>
       </c>
       <c r="E317" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="F317" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="G317" t="n">
         <v>1</v>
@@ -11735,10 +11723,10 @@
         <v>317</v>
       </c>
       <c r="E318" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="F318" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="G318" t="n">
         <v>1</v>
@@ -11764,10 +11752,10 @@
         <v>318</v>
       </c>
       <c r="E319" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="F319" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="G319" t="n">
         <v>1</v>
@@ -11793,10 +11781,10 @@
         <v>319</v>
       </c>
       <c r="E320" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="F320" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="G320" t="n">
         <v>1</v>
@@ -11822,10 +11810,10 @@
         <v>320</v>
       </c>
       <c r="E321" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="F321" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="G321" t="n">
         <v>1</v>
@@ -11851,10 +11839,10 @@
         <v>321</v>
       </c>
       <c r="E322" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="F322" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="G322" t="n">
         <v>1</v>
@@ -11880,10 +11868,10 @@
         <v>322</v>
       </c>
       <c r="E323" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="F323" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="G323" t="n">
         <v>1</v>
@@ -11909,10 +11897,10 @@
         <v>323</v>
       </c>
       <c r="E324" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="F324" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="G324" t="n">
         <v>1</v>
@@ -11938,10 +11926,10 @@
         <v>324</v>
       </c>
       <c r="E325" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="F325" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="G325" t="n">
         <v>1</v>
@@ -11967,10 +11955,10 @@
         <v>325</v>
       </c>
       <c r="E326" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="F326" t="s">
-        <v>646</v>
+        <v>600</v>
       </c>
       <c r="G326" t="n">
         <v>1</v>
@@ -11996,10 +11984,10 @@
         <v>326</v>
       </c>
       <c r="E327" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="F327" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="G327" t="n">
         <v>1</v>
@@ -12025,10 +12013,10 @@
         <v>327</v>
       </c>
       <c r="E328" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="F328" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="G328" t="n">
         <v>2</v>
@@ -12054,10 +12042,10 @@
         <v>328</v>
       </c>
       <c r="E329" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="F329" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="G329" t="n">
         <v>1</v>
@@ -12083,10 +12071,10 @@
         <v>329</v>
       </c>
       <c r="E330" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="F330" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="G330" t="n">
         <v>146</v>
@@ -12112,10 +12100,10 @@
         <v>330</v>
       </c>
       <c r="E331" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="F331" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="G331" t="n">
         <v>1</v>
@@ -12141,10 +12129,10 @@
         <v>331</v>
       </c>
       <c r="E332" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="F332" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="G332" t="n">
         <v>1</v>
@@ -12170,10 +12158,10 @@
         <v>332</v>
       </c>
       <c r="E333" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="F333" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="G333" t="n">
         <v>1</v>
@@ -12199,10 +12187,10 @@
         <v>333</v>
       </c>
       <c r="E334" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="F334" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="G334" t="n">
         <v>1</v>
@@ -12228,10 +12216,10 @@
         <v>334</v>
       </c>
       <c r="E335" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="F335" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="G335" t="n">
         <v>2</v>
@@ -12257,10 +12245,10 @@
         <v>335</v>
       </c>
       <c r="E336" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="F336" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="G336" t="n">
         <v>1</v>
@@ -12286,10 +12274,10 @@
         <v>336</v>
       </c>
       <c r="E337" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="F337" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="G337" t="n">
         <v>1</v>
@@ -12315,10 +12303,10 @@
         <v>337</v>
       </c>
       <c r="E338" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="F338" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="G338" t="n">
         <v>1</v>
@@ -12344,10 +12332,10 @@
         <v>338</v>
       </c>
       <c r="E339" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="F339" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="G339" t="n">
         <v>2</v>
@@ -12373,10 +12361,10 @@
         <v>339</v>
       </c>
       <c r="E340" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="F340" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="G340" t="n">
         <v>4</v>
@@ -12402,10 +12390,10 @@
         <v>340</v>
       </c>
       <c r="E341" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="F341" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="G341" t="n">
         <v>2</v>
@@ -12431,10 +12419,10 @@
         <v>341</v>
       </c>
       <c r="E342" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="F342" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="G342" t="n">
         <v>1</v>
@@ -12460,10 +12448,10 @@
         <v>342</v>
       </c>
       <c r="E343" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="F343" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="G343" t="n">
         <v>1</v>
@@ -12489,10 +12477,10 @@
         <v>343</v>
       </c>
       <c r="E344" t="s">
+        <v>544</v>
+      </c>
+      <c r="F344" t="s">
         <v>545</v>
-      </c>
-      <c r="F344" t="s">
-        <v>546</v>
       </c>
       <c r="G344" t="n">
         <v>1</v>
@@ -12518,10 +12506,10 @@
         <v>344</v>
       </c>
       <c r="E345" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="F345" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="G345" t="n">
         <v>1</v>
@@ -12547,10 +12535,10 @@
         <v>345</v>
       </c>
       <c r="E346" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="F346" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="G346" t="n">
         <v>1</v>
@@ -12576,10 +12564,10 @@
         <v>346</v>
       </c>
       <c r="E347" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="F347" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="G347" t="n">
         <v>2</v>
@@ -12605,10 +12593,10 @@
         <v>347</v>
       </c>
       <c r="E348" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="F348" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="G348" t="n">
         <v>8</v>
@@ -12634,10 +12622,10 @@
         <v>348</v>
       </c>
       <c r="E349" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="F349" t="s">
-        <v>690</v>
+        <v>545</v>
       </c>
       <c r="G349" t="n">
         <v>6</v>
@@ -12663,10 +12651,10 @@
         <v>349</v>
       </c>
       <c r="E350" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="F350" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G350" t="n">
         <v>11</v>
@@ -12692,10 +12680,10 @@
         <v>350</v>
       </c>
       <c r="E351" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="F351" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="G351" t="n">
         <v>1</v>
@@ -12721,10 +12709,10 @@
         <v>351</v>
       </c>
       <c r="E352" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="F352" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="G352" t="n">
         <v>1</v>
@@ -12750,10 +12738,10 @@
         <v>352</v>
       </c>
       <c r="E353" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="F353" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="G353" t="n">
         <v>1</v>
@@ -12779,10 +12767,10 @@
         <v>353</v>
       </c>
       <c r="E354" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="F354" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="G354" t="n">
         <v>7</v>
@@ -12808,10 +12796,10 @@
         <v>354</v>
       </c>
       <c r="E355" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="F355" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="G355" t="n">
         <v>1</v>
@@ -12837,10 +12825,10 @@
         <v>355</v>
       </c>
       <c r="E356" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="F356" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="G356" t="n">
         <v>3</v>
@@ -12866,10 +12854,10 @@
         <v>356</v>
       </c>
       <c r="E357" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="F357" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="G357" t="n">
         <v>1</v>
@@ -12895,10 +12883,10 @@
         <v>357</v>
       </c>
       <c r="E358" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="F358" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="G358" t="n">
         <v>3</v>
@@ -12924,10 +12912,10 @@
         <v>358</v>
       </c>
       <c r="E359" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="F359" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="G359" t="n">
         <v>1</v>
@@ -12953,10 +12941,10 @@
         <v>359</v>
       </c>
       <c r="E360" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="F360" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="G360" t="n">
         <v>1</v>
@@ -12982,10 +12970,10 @@
         <v>360</v>
       </c>
       <c r="E361" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="F361" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="G361" t="n">
         <v>1</v>
@@ -13011,10 +12999,10 @@
         <v>361</v>
       </c>
       <c r="E362" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="F362" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="G362" t="n">
         <v>1</v>
@@ -13040,10 +13028,10 @@
         <v>362</v>
       </c>
       <c r="E363" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="F363" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="G363" t="n">
         <v>6</v>
@@ -13069,10 +13057,10 @@
         <v>363</v>
       </c>
       <c r="E364" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="F364" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="G364" t="n">
         <v>1</v>
